--- a/金源2019-2021/2021年1-10月金源消耗表 (财务运营共享版）.xlsx
+++ b/金源2019-2021/2021年1-10月金源消耗表 (财务运营共享版）.xlsx
@@ -1304,7 +1304,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-804]aaaa;@"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -1541,7 +1541,7 @@
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1800,7 +1800,7 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1835,6 +1835,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2148,13 +2151,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AK595"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ6" sqref="AJ6"/>
+      <selection pane="bottomRight" activeCell="F603" sqref="F603"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -2303,14 +2307,14 @@
       </c>
       <c r="AJ1" s="38">
         <f>SUM(AB:AB)</f>
-        <v>39774027.868173167</v>
+        <v>39774126.018173166</v>
       </c>
       <c r="AK1" s="38">
         <f>SUM(AA:AA)</f>
-        <v>12166809.547953634</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+        <v>12166907.697953634</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
         <v>248</v>
       </c>
@@ -2406,7 +2410,7 @@
         <v>681389.03125</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="81" t="s">
         <v>248</v>
       </c>
@@ -2502,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="81" t="s">
         <v>248</v>
       </c>
@@ -2600,7 +2604,7 @@
         <v>527252.29230769211</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="81" t="s">
         <v>248</v>
       </c>
@@ -2694,7 +2698,7 @@
         <v>804004.7578125</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="81" t="s">
         <v>248</v>
       </c>
@@ -2788,7 +2792,7 @@
         <v>437947.25362318842</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="81" t="s">
         <v>248</v>
       </c>
@@ -2880,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="81" t="s">
         <v>248</v>
       </c>
@@ -2974,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="81" t="s">
         <v>248</v>
       </c>
@@ -3068,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="81" t="s">
         <v>248</v>
       </c>
@@ -3162,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="81" t="s">
         <v>248</v>
       </c>
@@ -3256,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="81" t="s">
         <v>248</v>
       </c>
@@ -3350,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="81" t="s">
         <v>248</v>
       </c>
@@ -3444,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="81" t="s">
         <v>248</v>
       </c>
@@ -3538,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="81" t="s">
         <v>248</v>
       </c>
@@ -3632,7 +3636,7 @@
         <v>45505.852112676053</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="81" t="s">
         <v>248</v>
       </c>
@@ -3726,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="81" t="s">
         <v>248</v>
       </c>
@@ -3820,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="81" t="s">
         <v>248</v>
       </c>
@@ -3914,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="81" t="s">
         <v>248</v>
       </c>
@@ -4008,7 +4012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="81" t="s">
         <v>248</v>
       </c>
@@ -4102,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="81" t="s">
         <v>248</v>
       </c>
@@ -4196,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="81" t="s">
         <v>178</v>
       </c>
@@ -4290,7 +4294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="81" t="s">
         <v>248</v>
       </c>
@@ -4384,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="81" t="s">
         <v>178</v>
       </c>
@@ -4478,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="81" t="s">
         <v>178</v>
       </c>
@@ -4572,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="81" t="s">
         <v>248</v>
       </c>
@@ -4666,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="81" t="s">
         <v>248</v>
       </c>
@@ -4760,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="81" t="s">
         <v>178</v>
       </c>
@@ -4854,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="81" t="s">
         <v>248</v>
       </c>
@@ -4948,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="81" t="s">
         <v>178</v>
       </c>
@@ -5042,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="81" t="s">
         <v>248</v>
       </c>
@@ -5136,7 +5140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="81" t="s">
         <v>178</v>
       </c>
@@ -5230,7 +5234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="81" t="s">
         <v>248</v>
       </c>
@@ -5324,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="81" t="s">
         <v>248</v>
       </c>
@@ -5418,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="81" t="s">
         <v>248</v>
       </c>
@@ -5512,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="81" t="s">
         <v>248</v>
       </c>
@@ -5606,7 +5610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="81" t="s">
         <v>248</v>
       </c>
@@ -5700,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="81" t="s">
         <v>178</v>
       </c>
@@ -5794,7 +5798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="81" t="s">
         <v>178</v>
       </c>
@@ -5934,8 +5938,8 @@
       <c r="Q40" s="24">
         <v>0.03</v>
       </c>
-      <c r="T40" s="59">
-        <v>480.55873239384499</v>
+      <c r="T40" s="100">
+        <v>105.95873239396133</v>
       </c>
       <c r="U40" s="59"/>
       <c r="V40" s="59">
@@ -5943,7 +5947,7 @@
       </c>
       <c r="W40" s="60">
         <f t="shared" si="0"/>
-        <v>480.55873239384499</v>
+        <v>105.95873239396133</v>
       </c>
       <c r="X40" s="60">
         <f t="shared" si="3"/>
@@ -5982,7 +5986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="81" t="s">
         <v>178</v>
       </c>
@@ -6076,7 +6080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="81" t="s">
         <v>248</v>
       </c>
@@ -6170,7 +6174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="81" t="s">
         <v>178</v>
       </c>
@@ -6264,7 +6268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="81" t="s">
         <v>248</v>
       </c>
@@ -6358,7 +6362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="81" t="s">
         <v>248</v>
       </c>
@@ -6452,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="81" t="s">
         <v>178</v>
       </c>
@@ -6546,7 +6550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="81" t="s">
         <v>248</v>
       </c>
@@ -6640,7 +6644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="81" t="s">
         <v>248</v>
       </c>
@@ -6734,7 +6738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="81" t="s">
         <v>248</v>
       </c>
@@ -6828,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="81" t="s">
         <v>178</v>
       </c>
@@ -6922,7 +6926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="81" t="s">
         <v>178</v>
       </c>
@@ -7016,7 +7020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="81" t="s">
         <v>248</v>
       </c>
@@ -7110,7 +7114,7 @@
         <v>32.795774647887313</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="81" t="s">
         <v>248</v>
       </c>
@@ -7204,7 +7208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="81" t="s">
         <v>178</v>
       </c>
@@ -7298,7 +7302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="81" t="s">
         <v>178</v>
       </c>
@@ -7392,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="81" t="s">
         <v>248</v>
       </c>
@@ -7486,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="81" t="s">
         <v>248</v>
       </c>
@@ -7580,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="81" t="s">
         <v>248</v>
       </c>
@@ -7674,7 +7678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="81" t="s">
         <v>178</v>
       </c>
@@ -7768,7 +7772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="81" t="s">
         <v>178</v>
       </c>
@@ -7862,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="81" t="s">
         <v>248</v>
       </c>
@@ -7956,7 +7960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="81" t="s">
         <v>248</v>
       </c>
@@ -8051,7 +8055,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="81" t="s">
         <v>248</v>
       </c>
@@ -8145,7 +8149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="81" t="s">
         <v>178</v>
       </c>
@@ -8236,7 +8240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="81" t="s">
         <v>178</v>
       </c>
@@ -8327,7 +8331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="81" t="s">
         <v>248</v>
       </c>
@@ -8413,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="81" t="s">
         <v>181</v>
       </c>
@@ -8518,7 +8522,7 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="81" t="s">
         <v>263</v>
       </c>
@@ -8619,7 +8623,7 @@
         <v>836764.81249999977</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="81" t="s">
         <v>263</v>
       </c>
@@ -8720,7 +8724,7 @@
         <v>215279.15942028977</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="81" t="s">
         <v>263</v>
       </c>
@@ -8821,7 +8825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="81" t="s">
         <v>181</v>
       </c>
@@ -8922,7 +8926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="81" t="s">
         <v>248</v>
       </c>
@@ -9014,7 +9018,7 @@
         <v>50136.600000000013</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="81" t="s">
         <v>263</v>
       </c>
@@ -9115,7 +9119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="81" t="s">
         <v>181</v>
       </c>
@@ -9216,7 +9220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="81" t="s">
         <v>263</v>
       </c>
@@ -9317,7 +9321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="81" t="s">
         <v>181</v>
       </c>
@@ -9418,7 +9422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="81" t="s">
         <v>263</v>
       </c>
@@ -9519,7 +9523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="81" t="s">
         <v>181</v>
       </c>
@@ -9620,7 +9624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="81" t="s">
         <v>263</v>
       </c>
@@ -9721,7 +9725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="81" t="s">
         <v>181</v>
       </c>
@@ -9822,7 +9826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="81" t="s">
         <v>181</v>
       </c>
@@ -9923,7 +9927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="81" t="s">
         <v>263</v>
       </c>
@@ -10024,7 +10028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="81" t="s">
         <v>263</v>
       </c>
@@ -10125,7 +10129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="81" t="s">
         <v>263</v>
       </c>
@@ -10226,7 +10230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="81" t="s">
         <v>263</v>
       </c>
@@ -10327,7 +10331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="81" t="s">
         <v>263</v>
       </c>
@@ -10428,7 +10432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="81" t="s">
         <v>181</v>
       </c>
@@ -10529,7 +10533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="81" t="s">
         <v>263</v>
       </c>
@@ -10630,7 +10634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="81" t="s">
         <v>181</v>
       </c>
@@ -10731,7 +10735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="81" t="s">
         <v>263</v>
       </c>
@@ -10832,7 +10836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="81" t="s">
         <v>263</v>
       </c>
@@ -10933,7 +10937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="81" t="s">
         <v>263</v>
       </c>
@@ -11034,7 +11038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="81" t="s">
         <v>263</v>
       </c>
@@ -11135,7 +11139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="81" t="s">
         <v>263</v>
       </c>
@@ -11236,7 +11240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="81" t="s">
         <v>181</v>
       </c>
@@ -11337,7 +11341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="81" t="s">
         <v>181</v>
       </c>
@@ -11438,7 +11442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="81" t="s">
         <v>263</v>
       </c>
@@ -11539,7 +11543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="81" t="s">
         <v>263</v>
       </c>
@@ -11640,7 +11644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="81" t="s">
         <v>263</v>
       </c>
@@ -11741,7 +11745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="81" t="s">
         <v>181</v>
       </c>
@@ -11842,7 +11846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="81" t="s">
         <v>181</v>
       </c>
@@ -11943,7 +11947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="81" t="s">
         <v>181</v>
       </c>
@@ -12044,7 +12048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="81" t="s">
         <v>181</v>
       </c>
@@ -12145,7 +12149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="81" t="s">
         <v>181</v>
       </c>
@@ -12296,8 +12300,8 @@
         <v>0.03</v>
       </c>
       <c r="R105" s="17"/>
-      <c r="T105" s="64">
-        <v>480.55873239384499</v>
+      <c r="T105" s="100">
+        <v>105.95873239396133</v>
       </c>
       <c r="U105" s="64"/>
       <c r="V105" s="64">
@@ -12305,7 +12309,7 @@
       </c>
       <c r="W105" s="65">
         <f t="shared" si="7"/>
-        <v>480.55873239384499</v>
+        <v>105.95873239396133</v>
       </c>
       <c r="X105" s="65">
         <f t="shared" si="15"/>
@@ -12347,7 +12351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="81" t="s">
         <v>181</v>
       </c>
@@ -12448,7 +12452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="81" t="s">
         <v>263</v>
       </c>
@@ -12549,7 +12553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="81" t="s">
         <v>181</v>
       </c>
@@ -12650,7 +12654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="81" t="s">
         <v>263</v>
       </c>
@@ -12751,7 +12755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="81" t="s">
         <v>181</v>
       </c>
@@ -12852,7 +12856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="81" t="s">
         <v>181</v>
       </c>
@@ -12953,7 +12957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="81" t="s">
         <v>181</v>
       </c>
@@ -13054,7 +13058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="81" t="s">
         <v>263</v>
       </c>
@@ -13155,7 +13159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="81" t="s">
         <v>263</v>
       </c>
@@ -13256,7 +13260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="81" t="s">
         <v>263</v>
       </c>
@@ -13357,7 +13361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="81" t="s">
         <v>181</v>
       </c>
@@ -13458,7 +13462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="81" t="s">
         <v>181</v>
       </c>
@@ -13559,7 +13563,7 @@
         <v>8.9507042253521156</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="81" t="s">
         <v>181</v>
       </c>
@@ -13660,7 +13664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="81" t="s">
         <v>181</v>
       </c>
@@ -13761,7 +13765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="81" t="s">
         <v>263</v>
       </c>
@@ -13862,7 +13866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="81" t="s">
         <v>263</v>
       </c>
@@ -13963,7 +13967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="81" t="s">
         <v>263</v>
       </c>
@@ -14064,7 +14068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="81" t="s">
         <v>181</v>
       </c>
@@ -14165,7 +14169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="81" t="s">
         <v>263</v>
       </c>
@@ -14266,7 +14270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="81" t="s">
         <v>263</v>
       </c>
@@ -14367,7 +14371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="81" t="s">
         <v>181</v>
       </c>
@@ -14468,7 +14472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="81" t="s">
         <v>263</v>
       </c>
@@ -14572,7 +14576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="81" t="s">
         <v>263</v>
       </c>
@@ -14672,7 +14676,7 @@
         <v>40650.985915492973</v>
       </c>
     </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="81" t="s">
         <v>263</v>
       </c>
@@ -14766,7 +14770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="81" t="s">
         <v>263</v>
       </c>
@@ -14863,7 +14867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="81" t="s">
         <v>263</v>
       </c>
@@ -14962,7 +14966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="81" t="s">
         <v>181</v>
       </c>
@@ -15067,7 +15071,7 @@
         <v>22.689999999999941</v>
       </c>
     </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="81" t="s">
         <v>193</v>
       </c>
@@ -15168,7 +15172,7 @@
         <v>1964.1</v>
       </c>
     </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="81" t="s">
         <v>193</v>
       </c>
@@ -15268,7 +15272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="81" t="s">
         <v>193</v>
       </c>
@@ -15376,7 +15380,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="81" t="s">
         <v>193</v>
       </c>
@@ -15475,7 +15479,7 @@
         <v>451877.28124999983</v>
       </c>
     </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="81" t="s">
         <v>193</v>
       </c>
@@ -15574,7 +15578,7 @@
         <v>219131.10144927545</v>
       </c>
     </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="81" t="s">
         <v>193</v>
       </c>
@@ -15673,7 +15677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="81" t="s">
         <v>193</v>
       </c>
@@ -15772,7 +15776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="81" t="s">
         <v>270</v>
       </c>
@@ -15871,7 +15875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="81" t="s">
         <v>270</v>
       </c>
@@ -15970,7 +15974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="81" t="s">
         <v>193</v>
       </c>
@@ -16069,7 +16073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="81" t="s">
         <v>270</v>
       </c>
@@ -16168,7 +16172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="81" t="s">
         <v>193</v>
       </c>
@@ -16267,7 +16271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="81" t="s">
         <v>270</v>
       </c>
@@ -16366,7 +16370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="81" t="s">
         <v>193</v>
       </c>
@@ -16465,7 +16469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="81" t="s">
         <v>270</v>
       </c>
@@ -16564,7 +16568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="81" t="s">
         <v>193</v>
       </c>
@@ -16663,7 +16667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="81" t="s">
         <v>193</v>
       </c>
@@ -16762,7 +16766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="81" t="s">
         <v>270</v>
       </c>
@@ -16861,7 +16865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="81" t="s">
         <v>270</v>
       </c>
@@ -16960,7 +16964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="81" t="s">
         <v>193</v>
       </c>
@@ -17059,7 +17063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="81" t="s">
         <v>270</v>
       </c>
@@ -17158,7 +17162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="81" t="s">
         <v>270</v>
       </c>
@@ -17257,7 +17261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="81" t="s">
         <v>270</v>
       </c>
@@ -17356,7 +17360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="81" t="s">
         <v>270</v>
       </c>
@@ -17455,7 +17459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="81" t="s">
         <v>270</v>
       </c>
@@ -17554,7 +17558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="81" t="s">
         <v>193</v>
       </c>
@@ -17653,7 +17657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="81" t="s">
         <v>193</v>
       </c>
@@ -17752,7 +17756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="81" t="s">
         <v>193</v>
       </c>
@@ -17851,7 +17855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="81" t="s">
         <v>270</v>
       </c>
@@ -17950,7 +17954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="81" t="s">
         <v>193</v>
       </c>
@@ -18049,7 +18053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="81" t="s">
         <v>193</v>
       </c>
@@ -18148,7 +18152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="81" t="s">
         <v>270</v>
       </c>
@@ -18247,7 +18251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="81" t="s">
         <v>270</v>
       </c>
@@ -18346,7 +18350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="81" t="s">
         <v>270</v>
       </c>
@@ -18445,7 +18449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="81" t="s">
         <v>270</v>
       </c>
@@ -18544,7 +18548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="81" t="s">
         <v>270</v>
       </c>
@@ -18643,7 +18647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="81" t="s">
         <v>193</v>
       </c>
@@ -18742,7 +18746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="81" t="s">
         <v>270</v>
       </c>
@@ -18841,7 +18845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="81" t="s">
         <v>193</v>
       </c>
@@ -18990,8 +18994,8 @@
         <v>0.03</v>
       </c>
       <c r="R172" s="17"/>
-      <c r="T172" s="64">
-        <v>480.55873239384499</v>
+      <c r="T172" s="100">
+        <v>105.95873239396133</v>
       </c>
       <c r="U172" s="64"/>
       <c r="V172" s="64">
@@ -18999,7 +19003,7 @@
       </c>
       <c r="W172" s="65">
         <f t="shared" si="26"/>
-        <v>480.55873239384499</v>
+        <v>105.95873239396133</v>
       </c>
       <c r="X172" s="65">
         <f t="shared" si="18"/>
@@ -19039,7 +19043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="81" t="s">
         <v>270</v>
       </c>
@@ -19138,7 +19142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="81" t="s">
         <v>270</v>
       </c>
@@ -19237,7 +19241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="81" t="s">
         <v>270</v>
       </c>
@@ -19336,7 +19340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="81" t="s">
         <v>270</v>
       </c>
@@ -19435,7 +19439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="81" t="s">
         <v>193</v>
       </c>
@@ -19534,7 +19538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="81" t="s">
         <v>193</v>
       </c>
@@ -19633,7 +19637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="81" t="s">
         <v>270</v>
       </c>
@@ -19732,7 +19736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="81" t="s">
         <v>270</v>
       </c>
@@ -19831,7 +19835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="81" t="s">
         <v>270</v>
       </c>
@@ -19930,7 +19934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="81" t="s">
         <v>270</v>
       </c>
@@ -20029,7 +20033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="81" t="s">
         <v>193</v>
       </c>
@@ -20128,7 +20132,7 @@
         <v>16114.171171171167</v>
       </c>
     </row>
-    <row r="184" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="81" t="s">
         <v>193</v>
       </c>
@@ -20227,7 +20231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="81" t="s">
         <v>193</v>
       </c>
@@ -20326,7 +20330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="81" t="s">
         <v>270</v>
       </c>
@@ -20425,7 +20429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="81" t="s">
         <v>193</v>
       </c>
@@ -20524,7 +20528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="81" t="s">
         <v>270</v>
       </c>
@@ -20623,7 +20627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="81" t="s">
         <v>193</v>
       </c>
@@ -20722,7 +20726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="81" t="s">
         <v>270</v>
       </c>
@@ -20821,7 +20825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="81" t="s">
         <v>193</v>
       </c>
@@ -20920,7 +20924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="81" t="s">
         <v>193</v>
       </c>
@@ -21019,7 +21023,7 @@
         <v>5691.8099999999995</v>
       </c>
     </row>
-    <row r="193" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="81" t="s">
         <v>193</v>
       </c>
@@ -21118,7 +21122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="81" t="s">
         <v>270</v>
       </c>
@@ -21219,7 +21223,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="195" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="81" t="s">
         <v>270</v>
       </c>
@@ -21318,7 +21322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="81" t="s">
         <v>193</v>
       </c>
@@ -21412,7 +21416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="81" t="s">
         <v>270</v>
       </c>
@@ -21504,7 +21508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="81" t="s">
         <v>193</v>
       </c>
@@ -21596,7 +21600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="81" t="s">
         <v>220</v>
       </c>
@@ -21701,7 +21705,7 @@
         <v>654001.57999999996</v>
       </c>
     </row>
-    <row r="200" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="81" t="s">
         <v>220</v>
       </c>
@@ -21807,7 +21811,7 @@
       </c>
       <c r="AI200" s="40"/>
     </row>
-    <row r="201" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="81" t="s">
         <v>220</v>
       </c>
@@ -21905,7 +21909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="81" t="s">
         <v>271</v>
       </c>
@@ -22011,7 +22015,7 @@
         <v>397864.9</v>
       </c>
     </row>
-    <row r="203" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="81" t="s">
         <v>273</v>
       </c>
@@ -22109,7 +22113,7 @@
         <v>23437.5</v>
       </c>
     </row>
-    <row r="204" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="81" t="s">
         <v>271</v>
       </c>
@@ -22207,7 +22211,7 @@
         <v>65589.739130434813</v>
       </c>
     </row>
-    <row r="205" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="81" t="s">
         <v>274</v>
       </c>
@@ -22305,7 +22309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="81" t="s">
         <v>220</v>
       </c>
@@ -22403,7 +22407,7 @@
         <v>152428.45652173911</v>
       </c>
     </row>
-    <row r="207" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="81" t="s">
         <v>220</v>
       </c>
@@ -22501,7 +22505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="81" t="s">
         <v>275</v>
       </c>
@@ -22599,7 +22603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="81" t="s">
         <v>220</v>
       </c>
@@ -22697,7 +22701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="81" t="s">
         <v>271</v>
       </c>
@@ -22795,7 +22799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="81" t="s">
         <v>276</v>
       </c>
@@ -22893,7 +22897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="81" t="s">
         <v>220</v>
       </c>
@@ -22991,7 +22995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="81" t="s">
         <v>220</v>
       </c>
@@ -23089,7 +23093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="81" t="s">
         <v>220</v>
       </c>
@@ -23187,7 +23191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="81" t="s">
         <v>220</v>
       </c>
@@ -23285,7 +23289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="81" t="s">
         <v>274</v>
       </c>
@@ -23383,7 +23387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="81" t="s">
         <v>274</v>
       </c>
@@ -23481,7 +23485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="81" t="s">
         <v>220</v>
       </c>
@@ -23579,7 +23583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="81" t="s">
         <v>220</v>
       </c>
@@ -23677,7 +23681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="81" t="s">
         <v>275</v>
       </c>
@@ -23775,7 +23779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="81" t="s">
         <v>220</v>
       </c>
@@ -23873,7 +23877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="81" t="s">
         <v>275</v>
       </c>
@@ -23971,7 +23975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="81" t="s">
         <v>220</v>
       </c>
@@ -24069,7 +24073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="81" t="s">
         <v>220</v>
       </c>
@@ -24167,7 +24171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="81" t="s">
         <v>220</v>
       </c>
@@ -24265,7 +24269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="81" t="s">
         <v>271</v>
       </c>
@@ -24363,7 +24367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="81" t="s">
         <v>274</v>
       </c>
@@ -24461,7 +24465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="81" t="s">
         <v>220</v>
       </c>
@@ -24559,7 +24563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="81" t="s">
         <v>277</v>
       </c>
@@ -24657,7 +24661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="81" t="s">
         <v>277</v>
       </c>
@@ -24755,7 +24759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="81" t="s">
         <v>220</v>
       </c>
@@ -24853,7 +24857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="81" t="s">
         <v>220</v>
       </c>
@@ -24951,7 +24955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="81" t="s">
         <v>220</v>
       </c>
@@ -25049,7 +25053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="81" t="s">
         <v>220</v>
       </c>
@@ -25147,7 +25151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="81" t="s">
         <v>220</v>
       </c>
@@ -25245,7 +25249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="81" t="s">
         <v>271</v>
       </c>
@@ -25343,7 +25347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="81" t="s">
         <v>220</v>
       </c>
@@ -25441,7 +25445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="81" t="s">
         <v>220</v>
       </c>
@@ -25589,8 +25593,8 @@
         <v>0.03</v>
       </c>
       <c r="R239" s="89"/>
-      <c r="T239" s="64">
-        <v>480.55873239384499</v>
+      <c r="T239" s="100">
+        <v>105.95873239396133</v>
       </c>
       <c r="U239" s="64"/>
       <c r="V239" s="64">
@@ -25598,7 +25602,7 @@
       </c>
       <c r="W239" s="65">
         <f t="shared" si="36"/>
-        <v>480.55873239384499</v>
+        <v>105.95873239396133</v>
       </c>
       <c r="X239" s="65">
         <f t="shared" si="38"/>
@@ -25637,7 +25641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="81" t="s">
         <v>220</v>
       </c>
@@ -25735,7 +25739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="81" t="s">
         <v>277</v>
       </c>
@@ -25833,7 +25837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="81" t="s">
         <v>274</v>
       </c>
@@ -25931,7 +25935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="81" t="s">
         <v>220</v>
       </c>
@@ -26029,7 +26033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="81" t="s">
         <v>220</v>
       </c>
@@ -26127,7 +26131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="81" t="s">
         <v>220</v>
       </c>
@@ -26225,7 +26229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="81" t="s">
         <v>273</v>
       </c>
@@ -26323,7 +26327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="81" t="s">
         <v>220</v>
       </c>
@@ -26421,7 +26425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="81" t="s">
         <v>220</v>
       </c>
@@ -26519,7 +26523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="81" t="s">
         <v>220</v>
       </c>
@@ -26618,7 +26622,7 @@
       </c>
       <c r="AJ249" s="10"/>
     </row>
-    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="81" t="s">
         <v>274</v>
       </c>
@@ -26716,7 +26720,7 @@
         <v>13156.567567567565</v>
       </c>
     </row>
-    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="81" t="s">
         <v>274</v>
       </c>
@@ -26814,7 +26818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="81" t="s">
         <v>220</v>
       </c>
@@ -26912,7 +26916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="81" t="s">
         <v>220</v>
       </c>
@@ -27010,7 +27014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="81" t="s">
         <v>220</v>
       </c>
@@ -27108,7 +27112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="81" t="s">
         <v>220</v>
       </c>
@@ -27206,7 +27210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="81" t="s">
         <v>220</v>
       </c>
@@ -27304,7 +27308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="81" t="s">
         <v>275</v>
       </c>
@@ -27402,7 +27406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="81" t="s">
         <v>220</v>
       </c>
@@ -27500,7 +27504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="81" t="s">
         <v>220</v>
       </c>
@@ -27598,7 +27602,7 @@
         <v>281.06</v>
       </c>
     </row>
-    <row r="260" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="81" t="s">
         <v>220</v>
       </c>
@@ -27696,7 +27700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="81" t="s">
         <v>220</v>
       </c>
@@ -27796,7 +27800,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="262" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="81" t="s">
         <v>220</v>
       </c>
@@ -27894,7 +27898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="81" t="s">
         <v>220</v>
       </c>
@@ -27993,7 +27997,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="264" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="81" t="s">
         <v>277</v>
       </c>
@@ -28088,7 +28092,7 @@
         <v>43612.43</v>
       </c>
     </row>
-    <row r="265" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="81" t="s">
         <v>220</v>
       </c>
@@ -28184,7 +28188,7 @@
         <v>95400</v>
       </c>
     </row>
-    <row r="266" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="81" t="s">
         <v>278</v>
       </c>
@@ -28287,7 +28291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="81" t="s">
         <v>226</v>
       </c>
@@ -28392,7 +28396,7 @@
       </c>
       <c r="AI267" s="47"/>
     </row>
-    <row r="268" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="81" t="s">
         <v>278</v>
       </c>
@@ -28493,7 +28497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="81" t="s">
         <v>278</v>
       </c>
@@ -28597,7 +28601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="81" t="s">
         <v>278</v>
       </c>
@@ -28698,7 +28702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="81" t="s">
         <v>278</v>
       </c>
@@ -28799,7 +28803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="81" t="s">
         <v>278</v>
       </c>
@@ -28900,7 +28904,7 @@
         <v>99683.652173913055</v>
       </c>
     </row>
-    <row r="273" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="81" t="s">
         <v>278</v>
       </c>
@@ -29001,7 +29005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="81" t="s">
         <v>278</v>
       </c>
@@ -29102,7 +29106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="81" t="s">
         <v>278</v>
       </c>
@@ -29203,7 +29207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="81" t="s">
         <v>278</v>
       </c>
@@ -29304,7 +29308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="81" t="s">
         <v>278</v>
       </c>
@@ -29405,7 +29409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="81" t="s">
         <v>278</v>
       </c>
@@ -29506,7 +29510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="81" t="s">
         <v>278</v>
       </c>
@@ -29607,7 +29611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="81" t="s">
         <v>278</v>
       </c>
@@ -29708,7 +29712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="81" t="s">
         <v>278</v>
       </c>
@@ -29809,7 +29813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="81" t="s">
         <v>278</v>
       </c>
@@ -29910,7 +29914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="81" t="s">
         <v>278</v>
       </c>
@@ -30011,7 +30015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="81" t="s">
         <v>226</v>
       </c>
@@ -30112,7 +30116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="81" t="s">
         <v>226</v>
       </c>
@@ -30213,7 +30217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="81" t="s">
         <v>226</v>
       </c>
@@ -30314,7 +30318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="81" t="s">
         <v>226</v>
       </c>
@@ -30415,7 +30419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="81" t="s">
         <v>226</v>
       </c>
@@ -30516,7 +30520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="81" t="s">
         <v>226</v>
       </c>
@@ -30617,7 +30621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="81" t="s">
         <v>226</v>
       </c>
@@ -30718,7 +30722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="81" t="s">
         <v>226</v>
       </c>
@@ -30819,7 +30823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="81" t="s">
         <v>226</v>
       </c>
@@ -30920,7 +30924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="81" t="s">
         <v>226</v>
       </c>
@@ -31021,7 +31025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="81" t="s">
         <v>226</v>
       </c>
@@ -31122,7 +31126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="81" t="s">
         <v>226</v>
       </c>
@@ -31223,7 +31227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="81" t="s">
         <v>226</v>
       </c>
@@ -31324,7 +31328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="81" t="s">
         <v>226</v>
       </c>
@@ -31425,7 +31429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="81" t="s">
         <v>226</v>
       </c>
@@ -31526,7 +31530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="81" t="s">
         <v>226</v>
       </c>
@@ -31627,7 +31631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="81" t="s">
         <v>226</v>
       </c>
@@ -31728,7 +31732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="81" t="s">
         <v>226</v>
       </c>
@@ -31829,7 +31833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="81" t="s">
         <v>226</v>
       </c>
@@ -31930,7 +31934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="81" t="s">
         <v>226</v>
       </c>
@@ -32031,7 +32035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="81" t="s">
         <v>226</v>
       </c>
@@ -32182,8 +32186,8 @@
         <v>0.03</v>
       </c>
       <c r="R305" s="91"/>
-      <c r="T305" s="69">
-        <v>480.55873239384499</v>
+      <c r="T305" s="100">
+        <v>105.95873239396133</v>
       </c>
       <c r="U305" s="69"/>
       <c r="V305" s="69">
@@ -32191,7 +32195,7 @@
       </c>
       <c r="W305" s="65">
         <f t="shared" si="45"/>
-        <v>480.55873239384499</v>
+        <v>105.95873239396133</v>
       </c>
       <c r="X305" s="65">
         <f t="shared" si="46"/>
@@ -32233,7 +32237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="81" t="s">
         <v>226</v>
       </c>
@@ -32334,7 +32338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="81" t="s">
         <v>226</v>
       </c>
@@ -32435,7 +32439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="81" t="s">
         <v>226</v>
       </c>
@@ -32536,7 +32540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="81" t="s">
         <v>226</v>
       </c>
@@ -32637,7 +32641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="81" t="s">
         <v>226</v>
       </c>
@@ -32738,7 +32742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="81" t="s">
         <v>226</v>
       </c>
@@ -32839,7 +32843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="81" t="s">
         <v>226</v>
       </c>
@@ -32940,7 +32944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="81" t="s">
         <v>226</v>
       </c>
@@ -33041,7 +33045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="81" t="s">
         <v>226</v>
       </c>
@@ -33142,7 +33146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="81" t="s">
         <v>226</v>
       </c>
@@ -33243,7 +33247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="81" t="s">
         <v>226</v>
       </c>
@@ -33344,7 +33348,7 @@
         <v>5674.1891891891892</v>
       </c>
     </row>
-    <row r="317" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="81" t="s">
         <v>226</v>
       </c>
@@ -33445,7 +33449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="81" t="s">
         <v>226</v>
       </c>
@@ -33546,7 +33550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="81" t="s">
         <v>226</v>
       </c>
@@ -33647,7 +33651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="81" t="s">
         <v>226</v>
       </c>
@@ -33748,7 +33752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="81" t="s">
         <v>226</v>
       </c>
@@ -33849,7 +33853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="81" t="s">
         <v>226</v>
       </c>
@@ -33950,7 +33954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="81" t="s">
         <v>226</v>
       </c>
@@ -34051,7 +34055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="81" t="s">
         <v>226</v>
       </c>
@@ -34152,7 +34156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="81" t="s">
         <v>226</v>
       </c>
@@ -34253,7 +34257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="81" t="s">
         <v>226</v>
       </c>
@@ -34354,7 +34358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="81" t="s">
         <v>226</v>
       </c>
@@ -34457,7 +34461,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="328" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="81" t="s">
         <v>226</v>
       </c>
@@ -34558,7 +34562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="81" t="s">
         <v>226</v>
       </c>
@@ -34662,7 +34666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="81" t="s">
         <v>226</v>
       </c>
@@ -34767,7 +34771,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="331" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="81" t="s">
         <v>226</v>
       </c>
@@ -34869,7 +34873,7 @@
         <v>67260.759999999995</v>
       </c>
     </row>
-    <row r="332" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="81" t="s">
         <v>230</v>
       </c>
@@ -34959,7 +34963,7 @@
         <v>1980003.2549999999</v>
       </c>
     </row>
-    <row r="333" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="81" t="s">
         <v>230</v>
       </c>
@@ -35050,7 +35054,7 @@
         <v>856319.46538461547</v>
       </c>
     </row>
-    <row r="334" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="81" t="s">
         <v>279</v>
       </c>
@@ -35141,7 +35145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="81" t="s">
         <v>279</v>
       </c>
@@ -35232,7 +35236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="81" t="s">
         <v>279</v>
       </c>
@@ -35323,7 +35327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="81" t="s">
         <v>279</v>
       </c>
@@ -35414,7 +35418,7 @@
         <v>14646.804347826088</v>
       </c>
     </row>
-    <row r="338" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="81" t="s">
         <v>230</v>
       </c>
@@ -35505,7 +35509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="81" t="s">
         <v>230</v>
       </c>
@@ -35596,7 +35600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="81" t="s">
         <v>230</v>
       </c>
@@ -35687,7 +35691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="81" t="s">
         <v>230</v>
       </c>
@@ -35778,7 +35782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="81" t="s">
         <v>230</v>
       </c>
@@ -35869,7 +35873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="81" t="s">
         <v>230</v>
       </c>
@@ -35960,7 +35964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="81" t="s">
         <v>230</v>
       </c>
@@ -36051,7 +36055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="81" t="s">
         <v>230</v>
       </c>
@@ -36142,7 +36146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="81" t="s">
         <v>230</v>
       </c>
@@ -36233,7 +36237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="81" t="s">
         <v>230</v>
       </c>
@@ -36324,7 +36328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="81" t="s">
         <v>230</v>
       </c>
@@ -36415,7 +36419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="81" t="s">
         <v>230</v>
       </c>
@@ -36506,7 +36510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="81" t="s">
         <v>230</v>
       </c>
@@ -36597,7 +36601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="81" t="s">
         <v>230</v>
       </c>
@@ -36688,7 +36692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="81" t="s">
         <v>230</v>
       </c>
@@ -36779,7 +36783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="81" t="s">
         <v>230</v>
       </c>
@@ -36870,7 +36874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="81" t="s">
         <v>230</v>
       </c>
@@ -36961,7 +36965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="81" t="s">
         <v>230</v>
       </c>
@@ -37052,7 +37056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="81" t="s">
         <v>230</v>
       </c>
@@ -37143,7 +37147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="81" t="s">
         <v>230</v>
       </c>
@@ -37234,7 +37238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="81" t="s">
         <v>230</v>
       </c>
@@ -37325,7 +37329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="81" t="s">
         <v>230</v>
       </c>
@@ -37416,7 +37420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="81" t="s">
         <v>230</v>
       </c>
@@ -37507,7 +37511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="81" t="s">
         <v>230</v>
       </c>
@@ -37598,7 +37602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="81" t="s">
         <v>230</v>
       </c>
@@ -37689,7 +37693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="81" t="s">
         <v>230</v>
       </c>
@@ -37780,7 +37784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="81" t="s">
         <v>230</v>
       </c>
@@ -37871,7 +37875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="81" t="s">
         <v>230</v>
       </c>
@@ -37962,7 +37966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="81" t="s">
         <v>230</v>
       </c>
@@ -38053,7 +38057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="81" t="s">
         <v>230</v>
       </c>
@@ -38144,7 +38148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="81" t="s">
         <v>279</v>
       </c>
@@ -38235,7 +38239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="81" t="s">
         <v>279</v>
       </c>
@@ -38376,8 +38380,8 @@
         <v>0.03</v>
       </c>
       <c r="R370" s="17"/>
-      <c r="T370" s="64">
-        <v>480.55873239384499</v>
+      <c r="T370" s="100">
+        <v>105.95873239396133</v>
       </c>
       <c r="U370" s="64"/>
       <c r="V370" s="64">
@@ -38385,7 +38389,7 @@
       </c>
       <c r="W370" s="65">
         <f t="shared" si="54"/>
-        <v>480.55873239384499</v>
+        <v>105.95873239396133</v>
       </c>
       <c r="X370" s="65">
         <f t="shared" si="53"/>
@@ -38417,7 +38421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="81" t="s">
         <v>279</v>
       </c>
@@ -38508,7 +38512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="81" t="s">
         <v>279</v>
       </c>
@@ -38599,7 +38603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="81" t="s">
         <v>279</v>
       </c>
@@ -38690,7 +38694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="81" t="s">
         <v>279</v>
       </c>
@@ -38781,7 +38785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="81" t="s">
         <v>279</v>
       </c>
@@ -38872,7 +38876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="81" t="s">
         <v>279</v>
       </c>
@@ -38963,7 +38967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="81" t="s">
         <v>279</v>
       </c>
@@ -39054,7 +39058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="81" t="s">
         <v>279</v>
       </c>
@@ -39145,7 +39149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="81" t="s">
         <v>279</v>
       </c>
@@ -39236,7 +39240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="81" t="s">
         <v>279</v>
       </c>
@@ -39327,7 +39331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="81" t="s">
         <v>279</v>
       </c>
@@ -39418,7 +39422,7 @@
         <v>691.94594594594594</v>
       </c>
     </row>
-    <row r="382" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="81" t="s">
         <v>230</v>
       </c>
@@ -39509,7 +39513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="81" t="s">
         <v>230</v>
       </c>
@@ -39600,7 +39604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="81" t="s">
         <v>230</v>
       </c>
@@ -39691,7 +39695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="81" t="s">
         <v>230</v>
       </c>
@@ -39782,7 +39786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="81" t="s">
         <v>230</v>
       </c>
@@ -39873,7 +39877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="81" t="s">
         <v>230</v>
       </c>
@@ -39964,7 +39968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="81" t="s">
         <v>230</v>
       </c>
@@ -40055,7 +40059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="81" t="s">
         <v>230</v>
       </c>
@@ -40146,7 +40150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="81" t="s">
         <v>230</v>
       </c>
@@ -40237,7 +40241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="81" t="s">
         <v>230</v>
       </c>
@@ -40328,7 +40332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="81" t="s">
         <v>230</v>
       </c>
@@ -40421,7 +40425,7 @@
         <v>3.1699999999999995</v>
       </c>
     </row>
-    <row r="393" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="81" t="s">
         <v>230</v>
       </c>
@@ -40512,7 +40516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="81" t="s">
         <v>231</v>
       </c>
@@ -40611,7 +40615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="81" t="s">
         <v>231</v>
       </c>
@@ -40710,7 +40714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="81" t="s">
         <v>231</v>
       </c>
@@ -40809,7 +40813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="81" t="s">
         <v>231</v>
       </c>
@@ -40908,7 +40912,7 @@
         <v>165.99275362318841</v>
       </c>
     </row>
-    <row r="398" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="81" t="s">
         <v>231</v>
       </c>
@@ -41007,7 +41011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="81" t="s">
         <v>231</v>
       </c>
@@ -41106,7 +41110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="81" t="s">
         <v>231</v>
       </c>
@@ -41205,7 +41209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="81" t="s">
         <v>231</v>
       </c>
@@ -41304,7 +41308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="81" t="s">
         <v>231</v>
       </c>
@@ -41403,7 +41407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="81" t="s">
         <v>231</v>
       </c>
@@ -41502,7 +41506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="81" t="s">
         <v>231</v>
       </c>
@@ -41601,7 +41605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="81" t="s">
         <v>231</v>
       </c>
@@ -41700,7 +41704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="81" t="s">
         <v>231</v>
       </c>
@@ -41799,7 +41803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="81" t="s">
         <v>231</v>
       </c>
@@ -41898,7 +41902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="81" t="s">
         <v>231</v>
       </c>
@@ -41997,7 +42001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="81" t="s">
         <v>231</v>
       </c>
@@ -42096,7 +42100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="81" t="s">
         <v>231</v>
       </c>
@@ -42195,7 +42199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="81" t="s">
         <v>231</v>
       </c>
@@ -42294,7 +42298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="81" t="s">
         <v>231</v>
       </c>
@@ -42393,7 +42397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="81" t="s">
         <v>231</v>
       </c>
@@ -42492,7 +42496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="81" t="s">
         <v>231</v>
       </c>
@@ -42591,7 +42595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="81" t="s">
         <v>231</v>
       </c>
@@ -42690,7 +42694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="81" t="s">
         <v>281</v>
       </c>
@@ -42789,7 +42793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="81" t="s">
         <v>231</v>
       </c>
@@ -42888,7 +42892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="81" t="s">
         <v>231</v>
       </c>
@@ -42987,7 +42991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="81" t="s">
         <v>231</v>
       </c>
@@ -43086,7 +43090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="81" t="s">
         <v>231</v>
       </c>
@@ -43185,7 +43189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="81" t="s">
         <v>231</v>
       </c>
@@ -43284,7 +43288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="81" t="s">
         <v>231</v>
       </c>
@@ -43383,7 +43387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="81" t="s">
         <v>231</v>
       </c>
@@ -43482,7 +43486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="81" t="s">
         <v>231</v>
       </c>
@@ -43581,7 +43585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="81" t="s">
         <v>231</v>
       </c>
@@ -43680,7 +43684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="81" t="s">
         <v>231</v>
       </c>
@@ -43779,7 +43783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="81" t="s">
         <v>231</v>
       </c>
@@ -43878,7 +43882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="81" t="s">
         <v>231</v>
       </c>
@@ -43977,7 +43981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="81" t="s">
         <v>231</v>
       </c>
@@ -44126,8 +44130,8 @@
         <v>0.03</v>
       </c>
       <c r="R430" s="17"/>
-      <c r="T430" s="64">
-        <v>480.55873239384499</v>
+      <c r="T430" s="100">
+        <v>105.95873239396133</v>
       </c>
       <c r="U430" s="64"/>
       <c r="V430" s="64">
@@ -44135,7 +44139,7 @@
       </c>
       <c r="W430" s="65">
         <f t="shared" si="62"/>
-        <v>480.55873239384499</v>
+        <v>105.95873239396133</v>
       </c>
       <c r="X430" s="65">
         <f t="shared" si="61"/>
@@ -44175,7 +44179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="81" t="s">
         <v>231</v>
       </c>
@@ -44274,7 +44278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="81" t="s">
         <v>231</v>
       </c>
@@ -44373,7 +44377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="81" t="s">
         <v>231</v>
       </c>
@@ -44472,7 +44476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="81" t="s">
         <v>231</v>
       </c>
@@ -44571,7 +44575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="81" t="s">
         <v>231</v>
       </c>
@@ -44670,7 +44674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="81" t="s">
         <v>231</v>
       </c>
@@ -44769,7 +44773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="81" t="s">
         <v>231</v>
       </c>
@@ -44868,7 +44872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="81" t="s">
         <v>231</v>
       </c>
@@ -44967,7 +44971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="81" t="s">
         <v>231</v>
       </c>
@@ -45066,7 +45070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="81" t="s">
         <v>231</v>
       </c>
@@ -45165,7 +45169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="81" t="s">
         <v>231</v>
       </c>
@@ -45264,7 +45268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="81" t="s">
         <v>231</v>
       </c>
@@ -45365,7 +45369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="81" t="s">
         <v>231</v>
       </c>
@@ -45464,7 +45468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="81" t="s">
         <v>231</v>
       </c>
@@ -45563,7 +45567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="81" t="s">
         <v>231</v>
       </c>
@@ -45662,7 +45666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="81" t="s">
         <v>231</v>
       </c>
@@ -45761,7 +45765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="81" t="s">
         <v>231</v>
       </c>
@@ -45860,7 +45864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="81" t="s">
         <v>231</v>
       </c>
@@ -45959,7 +45963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="81" t="s">
         <v>231</v>
       </c>
@@ -46058,7 +46062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="81" t="s">
         <v>231</v>
       </c>
@@ -46157,7 +46161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="81" t="s">
         <v>231</v>
       </c>
@@ -46256,7 +46260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="81" t="s">
         <v>231</v>
       </c>
@@ -46357,7 +46361,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="453" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="81" t="s">
         <v>231</v>
       </c>
@@ -46455,7 +46459,7 @@
         <v>1663.4859154929575</v>
       </c>
     </row>
-    <row r="454" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="81" t="s">
         <v>231</v>
       </c>
@@ -46556,7 +46560,7 @@
       </c>
       <c r="AI454" s="82"/>
     </row>
-    <row r="455" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="81" t="s">
         <v>241</v>
       </c>
@@ -46652,7 +46656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="81" t="s">
         <v>241</v>
       </c>
@@ -46746,7 +46750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="81" t="s">
         <v>241</v>
       </c>
@@ -46840,7 +46844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="81" t="s">
         <v>241</v>
       </c>
@@ -46934,7 +46938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="81" t="s">
         <v>241</v>
       </c>
@@ -47028,7 +47032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="81" t="s">
         <v>241</v>
       </c>
@@ -47122,7 +47126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="81" t="s">
         <v>241</v>
       </c>
@@ -47216,7 +47220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="81" t="s">
         <v>241</v>
       </c>
@@ -47310,7 +47314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="81" t="s">
         <v>241</v>
       </c>
@@ -47404,7 +47408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="81" t="s">
         <v>241</v>
       </c>
@@ -47498,7 +47502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="81" t="s">
         <v>241</v>
       </c>
@@ -47592,7 +47596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="81" t="s">
         <v>241</v>
       </c>
@@ -47686,7 +47690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="81" t="s">
         <v>241</v>
       </c>
@@ -47780,7 +47784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="81" t="s">
         <v>241</v>
       </c>
@@ -47874,7 +47878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="81" t="s">
         <v>241</v>
       </c>
@@ -47968,7 +47972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="81" t="s">
         <v>241</v>
       </c>
@@ -48062,7 +48066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="81" t="s">
         <v>241</v>
       </c>
@@ -48156,7 +48160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="81" t="s">
         <v>241</v>
       </c>
@@ -48250,7 +48254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="81" t="s">
         <v>241</v>
       </c>
@@ -48344,7 +48348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="81" t="s">
         <v>241</v>
       </c>
@@ -48438,7 +48442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="81" t="s">
         <v>241</v>
       </c>
@@ -48532,7 +48536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="81" t="s">
         <v>241</v>
       </c>
@@ -48626,7 +48630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="81" t="s">
         <v>241</v>
       </c>
@@ -48720,7 +48724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="81" t="s">
         <v>241</v>
       </c>
@@ -48814,7 +48818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="81" t="s">
         <v>241</v>
       </c>
@@ -48908,7 +48912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="81" t="s">
         <v>241</v>
       </c>
@@ -49002,7 +49006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="81" t="s">
         <v>241</v>
       </c>
@@ -49096,7 +49100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="81" t="s">
         <v>241</v>
       </c>
@@ -49190,7 +49194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="81" t="s">
         <v>241</v>
       </c>
@@ -49284,7 +49288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="81" t="s">
         <v>241</v>
       </c>
@@ -49378,7 +49382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="81" t="s">
         <v>241</v>
       </c>
@@ -49472,7 +49476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="81" t="s">
         <v>241</v>
       </c>
@@ -49566,7 +49570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="81" t="s">
         <v>241</v>
       </c>
@@ -49660,7 +49664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="81" t="s">
         <v>241</v>
       </c>
@@ -49754,7 +49758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="81" t="s">
         <v>241</v>
       </c>
@@ -49848,7 +49852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="81" t="s">
         <v>241</v>
       </c>
@@ -49942,7 +49946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="81" t="s">
         <v>241</v>
       </c>
@@ -50086,8 +50090,8 @@
         <v>0.03</v>
       </c>
       <c r="R492" s="17"/>
-      <c r="T492" s="86">
-        <v>480.55873239384499</v>
+      <c r="T492" s="100">
+        <v>105.95873239396133</v>
       </c>
       <c r="U492" s="86"/>
       <c r="V492" s="86">
@@ -50095,11 +50099,10 @@
       </c>
       <c r="W492" s="87">
         <f t="shared" si="68"/>
-        <v>480.55873239384499</v>
+        <v>105.95873239396133</v>
       </c>
       <c r="X492" s="87">
-        <f t="shared" si="65"/>
-        <v>0</v>
+        <v>98.15</v>
       </c>
       <c r="Y492" s="19">
         <v>0</v>
@@ -50107,15 +50110,15 @@
       <c r="Z492" s="64"/>
       <c r="AA492" s="64">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>98.15</v>
       </c>
       <c r="AB492" s="64">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>98.15</v>
       </c>
       <c r="AC492" s="72">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>-98.15</v>
       </c>
       <c r="AD492" s="64">
         <v>0</v>
@@ -50130,7 +50133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="81" t="s">
         <v>241</v>
       </c>
@@ -50224,7 +50227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="81" t="s">
         <v>241</v>
       </c>
@@ -50318,7 +50321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="81" t="s">
         <v>241</v>
       </c>
@@ -50412,7 +50415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="81" t="s">
         <v>241</v>
       </c>
@@ -50506,7 +50509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="81" t="s">
         <v>241</v>
       </c>
@@ -50600,7 +50603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="81" t="s">
         <v>241</v>
       </c>
@@ -50694,7 +50697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="81" t="s">
         <v>241</v>
       </c>
@@ -50788,7 +50791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="81" t="s">
         <v>241</v>
       </c>
@@ -50882,7 +50885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="81" t="s">
         <v>241</v>
       </c>
@@ -50976,7 +50979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="81" t="s">
         <v>241</v>
       </c>
@@ -51070,7 +51073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="81" t="s">
         <v>241</v>
       </c>
@@ -51164,7 +51167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="81" t="s">
         <v>241</v>
       </c>
@@ -51258,7 +51261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="81" t="s">
         <v>241</v>
       </c>
@@ -51352,7 +51355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="81" t="s">
         <v>241</v>
       </c>
@@ -51446,7 +51449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="81" t="s">
         <v>241</v>
       </c>
@@ -51540,7 +51543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="81" t="s">
         <v>241</v>
       </c>
@@ -51634,7 +51637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="81" t="s">
         <v>241</v>
       </c>
@@ -51728,7 +51731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="81" t="s">
         <v>241</v>
       </c>
@@ -51822,7 +51825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="81" t="s">
         <v>241</v>
       </c>
@@ -51916,7 +51919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="81" t="s">
         <v>241</v>
       </c>
@@ -52010,7 +52013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="81" t="s">
         <v>241</v>
       </c>
@@ -52107,7 +52110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="81" t="s">
         <v>241</v>
       </c>
@@ -52198,7 +52201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="81" t="s">
         <v>241</v>
       </c>
@@ -52292,7 +52295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="81" t="s">
         <v>225</v>
       </c>
@@ -52385,7 +52388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="81" t="s">
         <v>225</v>
       </c>
@@ -52478,7 +52481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="81" t="s">
         <v>225</v>
       </c>
@@ -52571,7 +52574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="81" t="s">
         <v>225</v>
       </c>
@@ -52664,7 +52667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="81" t="s">
         <v>225</v>
       </c>
@@ -52757,7 +52760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="81" t="s">
         <v>225</v>
       </c>
@@ -52850,7 +52853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="81" t="s">
         <v>225</v>
       </c>
@@ -52943,7 +52946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="81" t="s">
         <v>225</v>
       </c>
@@ -53036,7 +53039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="81" t="s">
         <v>225</v>
       </c>
@@ -53129,7 +53132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="81" t="s">
         <v>225</v>
       </c>
@@ -53222,7 +53225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="81" t="s">
         <v>225</v>
       </c>
@@ -53315,7 +53318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="81" t="s">
         <v>225</v>
       </c>
@@ -53408,7 +53411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="81" t="s">
         <v>225</v>
       </c>
@@ -53501,7 +53504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="81" t="s">
         <v>225</v>
       </c>
@@ -53594,7 +53597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="81" t="s">
         <v>225</v>
       </c>
@@ -53687,7 +53690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="81" t="s">
         <v>225</v>
       </c>
@@ -53780,7 +53783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="81" t="s">
         <v>225</v>
       </c>
@@ -53873,7 +53876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="81" t="s">
         <v>225</v>
       </c>
@@ -53966,7 +53969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="81" t="s">
         <v>225</v>
       </c>
@@ -54059,7 +54062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="81" t="s">
         <v>225</v>
       </c>
@@ -54152,7 +54155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="81" t="s">
         <v>225</v>
       </c>
@@ -54245,7 +54248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="81" t="s">
         <v>225</v>
       </c>
@@ -54338,7 +54341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="81" t="s">
         <v>225</v>
       </c>
@@ -54431,7 +54434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="81" t="s">
         <v>225</v>
       </c>
@@ -54524,7 +54527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="81" t="s">
         <v>225</v>
       </c>
@@ -54617,7 +54620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="81" t="s">
         <v>225</v>
       </c>
@@ -54710,7 +54713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="81" t="s">
         <v>225</v>
       </c>
@@ -54803,7 +54806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="81" t="s">
         <v>225</v>
       </c>
@@ -54896,7 +54899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="81" t="s">
         <v>225</v>
       </c>
@@ -54989,7 +54992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="81" t="s">
         <v>225</v>
       </c>
@@ -55082,7 +55085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="81" t="s">
         <v>225</v>
       </c>
@@ -55175,7 +55178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="81" t="s">
         <v>225</v>
       </c>
@@ -55268,7 +55271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="81" t="s">
         <v>225</v>
       </c>
@@ -55361,7 +55364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="81" t="s">
         <v>225</v>
       </c>
@@ -55454,7 +55457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="81" t="s">
         <v>225</v>
       </c>
@@ -55547,7 +55550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="81" t="s">
         <v>225</v>
       </c>
@@ -55733,7 +55736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="81" t="s">
         <v>225</v>
       </c>
@@ -55826,7 +55829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="81" t="s">
         <v>225</v>
       </c>
@@ -55919,7 +55922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="81" t="s">
         <v>225</v>
       </c>
@@ -56012,7 +56015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="81" t="s">
         <v>225</v>
       </c>
@@ -56105,7 +56108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="81" t="s">
         <v>225</v>
       </c>
@@ -56198,7 +56201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="81" t="s">
         <v>225</v>
       </c>
@@ -56291,7 +56294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="81" t="s">
         <v>225</v>
       </c>
@@ -56384,7 +56387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="81" t="s">
         <v>225</v>
       </c>
@@ -56477,7 +56480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="81" t="s">
         <v>225</v>
       </c>
@@ -56570,7 +56573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="81" t="s">
         <v>225</v>
       </c>
@@ -56662,7 +56665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="81" t="s">
         <v>225</v>
       </c>
@@ -56755,7 +56758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="81" t="s">
         <v>225</v>
       </c>
@@ -56848,7 +56851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="81" t="s">
         <v>225</v>
       </c>
@@ -56941,7 +56944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="81" t="s">
         <v>225</v>
       </c>
@@ -57034,7 +57037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="81" t="s">
         <v>225</v>
       </c>
@@ -57127,7 +57130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="81" t="s">
         <v>225</v>
       </c>
@@ -57220,7 +57223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="81" t="s">
         <v>225</v>
       </c>
@@ -57313,7 +57316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="81" t="s">
         <v>225</v>
       </c>
@@ -57406,7 +57409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="81" t="s">
         <v>225</v>
       </c>
@@ -57499,7 +57502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="81" t="s">
         <v>225</v>
       </c>
@@ -57592,7 +57595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="81" t="s">
         <v>225</v>
       </c>
@@ -57686,7 +57689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="81" t="s">
         <v>225</v>
       </c>
@@ -57779,7 +57782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="81" t="s">
         <v>225</v>
       </c>
@@ -57872,7 +57875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="81" t="s">
         <v>287</v>
       </c>
@@ -57963,7 +57966,7 @@
       </c>
       <c r="AH576" s="64"/>
     </row>
-    <row r="577" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="81" t="s">
         <v>287</v>
       </c>
@@ -58054,7 +58057,7 @@
       </c>
       <c r="AH577" s="64"/>
     </row>
-    <row r="578" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="81" t="s">
         <v>287</v>
       </c>
@@ -58145,7 +58148,7 @@
       </c>
       <c r="AH578" s="64"/>
     </row>
-    <row r="579" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="81" t="s">
         <v>287</v>
       </c>
@@ -58236,7 +58239,7 @@
       </c>
       <c r="AH579" s="64"/>
     </row>
-    <row r="580" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="81" t="s">
         <v>287</v>
       </c>
@@ -58327,7 +58330,7 @@
       </c>
       <c r="AH580" s="64"/>
     </row>
-    <row r="581" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="81" t="s">
         <v>287</v>
       </c>
@@ -58418,7 +58421,7 @@
       </c>
       <c r="AH581" s="64"/>
     </row>
-    <row r="582" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="81" t="s">
         <v>287</v>
       </c>
@@ -58509,7 +58512,7 @@
       </c>
       <c r="AH582" s="64"/>
     </row>
-    <row r="583" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="81" t="s">
         <v>287</v>
       </c>
@@ -58600,7 +58603,7 @@
       </c>
       <c r="AH583" s="64"/>
     </row>
-    <row r="584" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="81" t="s">
         <v>287</v>
       </c>
@@ -58691,7 +58694,7 @@
       </c>
       <c r="AH584" s="64"/>
     </row>
-    <row r="585" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="81" t="s">
         <v>287</v>
       </c>
@@ -58782,7 +58785,7 @@
       </c>
       <c r="AH585" s="64"/>
     </row>
-    <row r="586" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="81" t="s">
         <v>287</v>
       </c>
@@ -58873,7 +58876,7 @@
       </c>
       <c r="AH586" s="64"/>
     </row>
-    <row r="587" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="81" t="s">
         <v>287</v>
       </c>
@@ -58964,7 +58967,7 @@
       </c>
       <c r="AH587" s="64"/>
     </row>
-    <row r="588" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="81" t="s">
         <v>287</v>
       </c>
@@ -59055,7 +59058,7 @@
       </c>
       <c r="AH588" s="64"/>
     </row>
-    <row r="589" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="81" t="s">
         <v>287</v>
       </c>
@@ -59146,7 +59149,7 @@
       </c>
       <c r="AH589" s="64"/>
     </row>
-    <row r="590" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="81" t="s">
         <v>287</v>
       </c>
@@ -59237,7 +59240,7 @@
       </c>
       <c r="AH590" s="64"/>
     </row>
-    <row r="591" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="81" t="s">
         <v>287</v>
       </c>
@@ -59328,7 +59331,7 @@
       </c>
       <c r="AH591" s="64"/>
     </row>
-    <row r="592" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="81" t="s">
         <v>287</v>
       </c>
@@ -59419,7 +59422,7 @@
       </c>
       <c r="AH592" s="64"/>
     </row>
-    <row r="593" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="81" t="s">
         <v>287</v>
       </c>
@@ -59510,7 +59513,7 @@
       </c>
       <c r="AH593" s="64"/>
     </row>
-    <row r="594" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="81" t="s">
         <v>287</v>
       </c>
@@ -59601,7 +59604,7 @@
       </c>
       <c r="AH594" s="64"/>
     </row>
-    <row r="595" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="81" t="s">
         <v>287</v>
       </c>
@@ -59689,7 +59692,13 @@
       <c r="AH595" s="64"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK595"/>
+  <autoFilter ref="A1:AK595">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="北京多彩互动广告有限公司—上海乐之鲸鱼数码科技有限公司"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -59817,7 +59826,7 @@
       </c>
       <c r="Z1" s="31">
         <f>Y1-客户表!AJ1</f>
-        <v>0</v>
+        <v>-98.150000005960464</v>
       </c>
       <c r="AA1" s="31">
         <f>SUM(L:L)</f>

--- a/金源2019-2021/2021年1-10月金源消耗表 (财务运营共享版）.xlsx
+++ b/金源2019-2021/2021年1-10月金源消耗表 (财务运营共享版）.xlsx
@@ -2158,7 +2158,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F603" sqref="F603"/>
+      <selection pane="bottomRight" activeCell="T608" sqref="T608"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -2307,11 +2307,11 @@
       </c>
       <c r="AJ1" s="38">
         <f>SUM(AB:AB)</f>
-        <v>39774126.018173166</v>
+        <v>39774027.868173167</v>
       </c>
       <c r="AK1" s="38">
         <f>SUM(AA:AA)</f>
-        <v>12166907.697953634</v>
+        <v>12166809.547953634</v>
       </c>
     </row>
     <row r="2" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
@@ -50102,7 +50102,7 @@
         <v>105.95873239396133</v>
       </c>
       <c r="X492" s="87">
-        <v>98.15</v>
+        <v>0</v>
       </c>
       <c r="Y492" s="19">
         <v>0</v>
@@ -50110,15 +50110,15 @@
       <c r="Z492" s="64"/>
       <c r="AA492" s="64">
         <f t="shared" si="63"/>
-        <v>98.15</v>
+        <v>0</v>
       </c>
       <c r="AB492" s="64">
         <f t="shared" si="64"/>
-        <v>98.15</v>
+        <v>0</v>
       </c>
       <c r="AC492" s="72">
         <f t="shared" si="66"/>
-        <v>-98.15</v>
+        <v>0</v>
       </c>
       <c r="AD492" s="64">
         <v>0</v>
@@ -59826,7 +59826,7 @@
       </c>
       <c r="Z1" s="31">
         <f>Y1-客户表!AJ1</f>
-        <v>-98.150000005960464</v>
+        <v>0</v>
       </c>
       <c r="AA1" s="31">
         <f>SUM(L:L)</f>

--- a/金源2019-2021/2021年1-10月金源消耗表 (财务运营共享版）.xlsx
+++ b/金源2019-2021/2021年1-10月金源消耗表 (财务运营共享版）.xlsx
@@ -335,7 +335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8639" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8641" uniqueCount="291">
   <si>
     <t>媒体名称</t>
   </si>
@@ -1296,6 +1296,14 @@
     <t>2021年10月</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>金源账户返货冲入多彩账户，20700</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金源账户返货冲入多彩账户，51200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1541,7 +1549,7 @@
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1838,6 +1846,9 @@
     </xf>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2155,27 +2166,27 @@
   <dimension ref="A1:AK595"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T608" sqref="T608"/>
+      <selection pane="bottomRight" activeCell="O137" sqref="A1:AK595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="81" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.90625" style="17"/>
-    <col min="3" max="3" width="12.26953125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.90625" style="17"/>
-    <col min="5" max="5" width="25.90625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.08984375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="28.90625" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.08984375" style="54" customWidth="1"/>
-    <col min="9" max="9" width="33.08984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="17" customWidth="1"/>
-    <col min="11" max="11" width="12.7265625" style="17" customWidth="1"/>
-    <col min="12" max="12" width="9" style="17" customWidth="1"/>
-    <col min="13" max="13" width="28.90625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" style="17" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="25.90625" style="17" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="28.90625" style="17" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.08984375" style="54" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="9" style="17" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7265625" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="17" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6328125" style="17" customWidth="1"/>
     <col min="14" max="16" width="8.90625" style="17"/>
     <col min="17" max="17" width="9.08984375" style="21" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.453125" style="9" bestFit="1" customWidth="1"/>
@@ -2307,14 +2318,14 @@
       </c>
       <c r="AJ1" s="38">
         <f>SUM(AB:AB)</f>
-        <v>39774027.868173167</v>
+        <v>39827806.661243789</v>
       </c>
       <c r="AK1" s="38">
         <f>SUM(AA:AA)</f>
-        <v>12166809.547953634</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+        <v>12219855.070596678</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
         <v>248</v>
       </c>
@@ -2410,7 +2421,7 @@
         <v>681389.03125</v>
       </c>
     </row>
-    <row r="3" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="81" t="s">
         <v>248</v>
       </c>
@@ -2604,7 +2615,7 @@
         <v>527252.29230769211</v>
       </c>
     </row>
-    <row r="5" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="81" t="s">
         <v>248</v>
       </c>
@@ -2698,7 +2709,7 @@
         <v>804004.7578125</v>
       </c>
     </row>
-    <row r="6" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="81" t="s">
         <v>248</v>
       </c>
@@ -5892,7 +5903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="81" t="s">
         <v>248</v>
       </c>
@@ -8522,7 +8533,7 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="68" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" s="81" t="s">
         <v>263</v>
       </c>
@@ -8623,7 +8634,7 @@
         <v>836764.81249999977</v>
       </c>
     </row>
-    <row r="69" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" s="81" t="s">
         <v>263</v>
       </c>
@@ -8724,7 +8735,7 @@
         <v>215279.15942028977</v>
       </c>
     </row>
-    <row r="70" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" s="81" t="s">
         <v>263</v>
       </c>
@@ -8825,7 +8836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" s="81" t="s">
         <v>181</v>
       </c>
@@ -12250,7 +12261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="81" t="s">
         <v>263</v>
       </c>
@@ -15380,7 +15391,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A136" s="81" t="s">
         <v>193</v>
       </c>
@@ -15479,7 +15490,7 @@
         <v>451877.28124999983</v>
       </c>
     </row>
-    <row r="137" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A137" s="81" t="s">
         <v>193</v>
       </c>
@@ -15578,7 +15589,7 @@
         <v>219131.10144927545</v>
       </c>
     </row>
-    <row r="138" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A138" s="81" t="s">
         <v>193</v>
       </c>
@@ -15677,7 +15688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A139" s="81" t="s">
         <v>193</v>
       </c>
@@ -18944,7 +18955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="81" t="s">
         <v>270</v>
       </c>
@@ -22015,7 +22026,7 @@
         <v>397864.9</v>
       </c>
     </row>
-    <row r="203" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A203" s="81" t="s">
         <v>273</v>
       </c>
@@ -22065,6 +22076,9 @@
         <v>2.5600000000000001E-2</v>
       </c>
       <c r="R203" s="89"/>
+      <c r="S203" s="101" t="s">
+        <v>290</v>
+      </c>
       <c r="T203" s="64">
         <v>38360.160000000498</v>
       </c>
@@ -22077,23 +22091,23 @@
         <v>8360.1600000004983</v>
       </c>
       <c r="X203" s="60">
-        <f>IF(P203="折扣",V203*Q203,IF(P203="返现",V203,V203/(1+Q203+AG203)))</f>
-        <v>22977.941176470587</v>
+        <f>IF(P203="折扣",V203*Q203,IF(P203="返现",V203,(V203+51200)/(1+Q203+AG203)))</f>
+        <v>62193.627450980384</v>
       </c>
       <c r="Y203" s="19">
         <v>0</v>
       </c>
       <c r="AA203" s="64">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>38755.757450980382</v>
       </c>
       <c r="AB203" s="64">
         <f t="shared" si="32"/>
-        <v>22977.941176470587</v>
+        <v>62193.627450980384</v>
       </c>
       <c r="AC203" s="68">
         <f t="shared" si="35"/>
-        <v>7022.0588235294126</v>
+        <v>-32193.627450980384</v>
       </c>
       <c r="AD203" s="64">
         <v>23437.87</v>
@@ -22113,7 +22127,7 @@
         <v>23437.5</v>
       </c>
     </row>
-    <row r="204" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A204" s="81" t="s">
         <v>271</v>
       </c>
@@ -22211,7 +22225,7 @@
         <v>65589.739130434813</v>
       </c>
     </row>
-    <row r="205" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A205" s="81" t="s">
         <v>274</v>
       </c>
@@ -22309,7 +22323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A206" s="81" t="s">
         <v>220</v>
       </c>
@@ -25543,7 +25557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="81" t="s">
         <v>220</v>
       </c>
@@ -28601,7 +28615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A270" s="81" t="s">
         <v>278</v>
       </c>
@@ -28702,7 +28716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A271" s="81" t="s">
         <v>278</v>
       </c>
@@ -28803,7 +28817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A272" s="81" t="s">
         <v>278</v>
       </c>
@@ -32136,7 +32150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="81" t="s">
         <v>226</v>
       </c>
@@ -35145,7 +35159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A335" s="81" t="s">
         <v>279</v>
       </c>
@@ -35207,7 +35221,7 @@
         <v>8360.1600000004983</v>
       </c>
       <c r="X335" s="65">
-        <f t="shared" si="53"/>
+        <f>IF(P335="折扣",V335*Q335,IF(P335="返现",V335,V335/(1+Q335+AG335)))</f>
         <v>0</v>
       </c>
       <c r="Y335" s="19">
@@ -35236,7 +35250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A336" s="81" t="s">
         <v>279</v>
       </c>
@@ -35285,7 +35299,6 @@
       <c r="Q336" s="19">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="R336" s="17"/>
       <c r="T336" s="64">
         <v>0</v>
       </c>
@@ -35298,7 +35311,7 @@
         <v>0</v>
       </c>
       <c r="X336" s="65">
-        <f t="shared" si="53"/>
+        <f>IF(P336="折扣",V336*Q336,IF(P336="返现",V336,V336/(1+Q336+AG336)))</f>
         <v>0</v>
       </c>
       <c r="Y336" s="19">
@@ -35327,7 +35340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A337" s="81" t="s">
         <v>279</v>
       </c>
@@ -35376,7 +35389,10 @@
       <c r="Q337" s="24">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="R337" s="17"/>
+      <c r="R337" s="101"/>
+      <c r="S337" s="101" t="s">
+        <v>289</v>
+      </c>
       <c r="T337" s="64">
         <v>30618.106400001008</v>
       </c>
@@ -35389,8 +35405,8 @@
         <v>10405.516400001008</v>
       </c>
       <c r="X337" s="65">
-        <f t="shared" si="53"/>
-        <v>14220.198395947655</v>
+        <f>IF(P337="折扣",V337*Q337,IF(P337="返现",V337,(V337+20700)/(1+Q337+AG337)))</f>
+        <v>28783.305192064156</v>
       </c>
       <c r="Y337" s="19">
         <v>0</v>
@@ -35398,11 +35414,11 @@
       <c r="Z337" s="61"/>
       <c r="AA337" s="64">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>14289.765192064155</v>
       </c>
       <c r="AB337" s="64">
         <f t="shared" si="51"/>
-        <v>14220.198395947655</v>
+        <v>28783.305192064156</v>
       </c>
       <c r="AD337" s="64">
         <v>14493.54</v>
@@ -38330,7 +38346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="81" t="s">
         <v>279</v>
       </c>
@@ -40615,7 +40631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A395" s="81" t="s">
         <v>231</v>
       </c>
@@ -40714,7 +40730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A396" s="81" t="s">
         <v>231</v>
       </c>
@@ -40813,7 +40829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A397" s="81" t="s">
         <v>231</v>
       </c>
@@ -44080,7 +44096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="81" t="s">
         <v>231</v>
       </c>
@@ -46750,7 +46766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A457" s="81" t="s">
         <v>241</v>
       </c>
@@ -46844,7 +46860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A458" s="81" t="s">
         <v>241</v>
       </c>
@@ -46938,7 +46954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A459" s="81" t="s">
         <v>241</v>
       </c>
@@ -50040,7 +50056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="81" t="s">
         <v>241</v>
       </c>
@@ -52481,7 +52497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A518" s="81" t="s">
         <v>225</v>
       </c>
@@ -52574,7 +52590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A519" s="81" t="s">
         <v>225</v>
       </c>
@@ -55643,7 +55659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="81" t="s">
         <v>225</v>
       </c>
@@ -58057,7 +58073,7 @@
       </c>
       <c r="AH577" s="64"/>
     </row>
-    <row r="578" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A578" s="81" t="s">
         <v>287</v>
       </c>
@@ -58148,7 +58164,7 @@
       </c>
       <c r="AH578" s="64"/>
     </row>
-    <row r="579" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A579" s="81" t="s">
         <v>287</v>
       </c>
@@ -59693,9 +59709,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AK595">
-    <filterColumn colId="5">
+    <filterColumn colId="12">
       <filters>
-        <filter val="北京多彩互动广告有限公司—上海乐之鲸鱼数码科技有限公司"/>
+        <filter val="北京陌陌科技有限公司"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -59826,7 +59842,7 @@
       </c>
       <c r="Z1" s="31">
         <f>Y1-客户表!AJ1</f>
-        <v>0</v>
+        <v>-53778.793070629239</v>
       </c>
       <c r="AA1" s="31">
         <f>SUM(L:L)</f>
